--- a/doc/IN-2346.xlsx
+++ b/doc/IN-2346.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Esquel\PLM\PLM\20170324 update style bom colorway fabric code(PRD)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\report\wes\ArasGarmentReplaceFabric\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="25140" windowHeight="10440"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="25140" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Replace Fabric" sheetId="1" r:id="rId1"/>
+    <sheet name="Replace PLU" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>15DSGS001ES</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -94,53 +95,53 @@
   </si>
   <si>
     <t>CQ50A50A-3P5683</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>OC4040-19A575KR</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>13DD03A1AFC54979985FD68BA01E43F0</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>05DFA3FC4BB34F2BB423746FAB347A9A</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>15CNLI001CL</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>HL2015-39090N</t>
   </si>
   <si>
-    <t>DC100A100A-199717DK</t>
-  </si>
-  <si>
     <t>CC80A80A-1Q0903DK</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PC80A50-1Q0893DK</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Original PLU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>New PLU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OC100A100A-1Q3236DKP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -155,9 +156,25 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -174,10 +191,9 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -217,42 +233,49 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal_Spring 2009 Men's Woven buy plan (PYE) rev 1 (2)" xfId="1"/>
+    <cellStyle name="Normal_Spring 2009 Men's Woven buy plan (PYE) rev 1 (2)" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -280,7 +303,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -592,19 +615,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A24" sqref="A24:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.875" customWidth="1"/>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
-    <col min="3" max="3" width="32.625" customWidth="1"/>
-    <col min="4" max="4" width="39.625" customWidth="1"/>
+    <col min="1" max="1" width="15.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="39.625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -622,219 +646,302 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>11173010814</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5">
+        <v>11173012011</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6">
-        <v>11173012011</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B4" s="3">
+        <v>11173012212</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>11173012416</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>11173011867</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>11173012611</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>11173012812</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="9">
+        <v>51171002738</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="9">
+        <v>11161000400</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="9">
+        <v>11161000400</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="9">
+        <v>11181006815</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B97B6F-1CB6-4EA2-BC8F-06F4516401B5}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="21.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4">
-        <v>11173012212</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4">
-        <v>11173012416</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4">
-        <v>11173011867</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4">
-        <v>11173012611</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4">
-        <v>11173012812</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D9" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="8">
-        <v>51171002738</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="8">
-        <v>11161000400</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="8">
-        <v>11161000400</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="8">
-        <v>11171002929</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B2" s="9">
+        <v>11181006815</v>
+      </c>
+      <c r="C2" s="9">
+        <v>11181006816</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
